--- a/biology/Médecine/Julius_H._Comroe_Jr/Julius_H._Comroe_Jr.xlsx
+++ b/biology/Médecine/Julius_H._Comroe_Jr/Julius_H._Comroe_Jr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Hiram Comroe Jr, né le 13 mars 1911 à York (Pennsylvanie) et mort le 31 juillet 1984 à Hillsborough (Californie) est un physiologiste américain. Il est connu pour ses travaux sur la physiologie et la physiopathologie du cœur et surtout des poumons.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lui-même fils de médecin, il est diplômé en médecine de l'université de Pennsylvanie en 1934. Des voyages de recherche le conduisent à Zurich en 1938 et à l'Institut national de recherche médicale de Londres en 1939. Par la suite, il obtient un poste d'enseignant à l'université de Pennsylvanie, où il prend la chaire de physiologie et de pharmacologie en 1946. Il y  contribue à la recherche et à l'enseignement multidisciplinaires.
 En 1958, il est nommé directeur fondateur de l'Institut de recherche cardiovasculaire (CVRI, Cardiovascular Research Institute) de l'université de Californie à San Francisco (UCSF) où il introduit les mathématiques, les statistiques, la physique et  la biophysique dans les études médicales ainsi que des conférences hebdomadaires de physiologie cardiovasculaire. En 1973, il démissionne de son poste de directeur de l'institut pour se consacrer exclusivement à ses propres recherches.
@@ -544,10 +558,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1961 membre de l'Académie nationale des sciences
-1964 membre de l'Académie américaine des arts et des sciences [1]
+1964 membre de l'Académie américaine des arts et des sciences 
 1968 Doctorat honorifique de l'Institut Karolinska
 1968 Doctorat honorifique de l'Université de Chicago
 1976 Médaille Jessie Stevenson Kovalenko</t>
@@ -578,7 +594,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Lung: Clinical Physiology and Pulmonary Function Tests (Le poumon: physiologie clinique et tests de la fonction pulmonaire)
 Traduction allemande (avec Heinrich Anton Gerlach): Les poumons: physiologie clinique et tests de la fonction pulmonaire, Stuttgart 1964
